--- a/datafile_bb.xlsx
+++ b/datafile_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2116,61 +2116,41 @@
           <t>Henan Phoenix</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="E27" t="n">
+        <v>35</v>
+      </c>
+      <c r="F27" t="n">
+        <v>32</v>
+      </c>
+      <c r="G27" t="n">
+        <v>40</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="J27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>12</v>
+      </c>
+      <c r="M27" t="n">
+        <v>15</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="O27" t="n">
+        <v>128</v>
+      </c>
+      <c r="P27" t="n">
+        <v>50</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2199,61 +2179,41 @@
           <t>Sichuan</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G28" t="n">
+        <v>28</v>
+      </c>
+      <c r="H28" t="n">
+        <v>15</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="J28" t="n">
+        <v>29</v>
+      </c>
+      <c r="K28" t="n">
+        <v>21</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" t="n">
+        <v>26</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="O28" t="n">
+        <v>77</v>
+      </c>
+      <c r="P28" t="n">
+        <v>96</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2282,61 +2242,41 @@
           <t>Shanxi Xing Rui Flame</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="E29" t="n">
+        <v>25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>23</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="J29" t="n">
+        <v>18</v>
+      </c>
+      <c r="K29" t="n">
+        <v>16</v>
+      </c>
+      <c r="L29" t="n">
+        <v>16</v>
+      </c>
+      <c r="M29" t="n">
+        <v>22</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="O29" t="n">
+        <v>92</v>
+      </c>
+      <c r="P29" t="n">
+        <v>72</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2365,61 +2305,41 @@
           <t>Sichuan</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="J30" t="n">
+        <v>28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>22</v>
+      </c>
+      <c r="L30" t="n">
+        <v>27</v>
+      </c>
+      <c r="M30" t="n">
+        <v>19</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="O30" t="n">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>96</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2448,61 +2368,41 @@
           <t>Guangdong Vermilion Birds</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="E31" t="n">
+        <v>17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>21</v>
+      </c>
+      <c r="G31" t="n">
+        <v>23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="J31" t="n">
+        <v>17</v>
+      </c>
+      <c r="K31" t="n">
+        <v>17</v>
+      </c>
+      <c r="L31" t="n">
+        <v>18</v>
+      </c>
+      <c r="M31" t="n">
+        <v>24</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="O31" t="n">
+        <v>81</v>
+      </c>
+      <c r="P31" t="n">
+        <v>76</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2531,61 +2431,41 @@
           <t>Sichuan</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="E32" t="n">
+        <v>25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>24</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="J32" t="n">
+        <v>21</v>
+      </c>
+      <c r="K32" t="n">
+        <v>20</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20</v>
+      </c>
+      <c r="M32" t="n">
+        <v>29</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="O32" t="n">
+        <v>85</v>
+      </c>
+      <c r="P32" t="n">
+        <v>90</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2644,15 +2524,11 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="O33" t="n">
+        <v>96</v>
+      </c>
+      <c r="P33" t="n">
+        <v>85</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2681,65 +2557,41 @@
           <t>Inner Mongolia</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E34" t="n">
+        <v>30</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>23</v>
+      </c>
+      <c r="K34" t="n">
+        <v>23</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>25</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>89</v>
+      </c>
+      <c r="P34" t="n">
+        <v>95</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2798,17 +2650,1331 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="O35" t="n">
+        <v>78</v>
+      </c>
+      <c r="P35" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>24</v>
+      </c>
+      <c r="F36" t="n">
+        <v>18</v>
+      </c>
+      <c r="G36" t="n">
+        <v>24</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15</v>
+      </c>
+      <c r="K36" t="n">
+        <v>18</v>
+      </c>
+      <c r="L36" t="n">
+        <v>19</v>
+      </c>
+      <c r="M36" t="n">
+        <v>18</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>94</v>
+      </c>
+      <c r="P36" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>24</v>
+      </c>
+      <c r="F37" t="n">
+        <v>28</v>
+      </c>
+      <c r="G37" t="n">
+        <v>20</v>
+      </c>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>23</v>
+      </c>
+      <c r="K37" t="n">
+        <v>20</v>
+      </c>
+      <c r="L37" t="n">
+        <v>35</v>
+      </c>
+      <c r="M37" t="n">
+        <v>23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>92</v>
+      </c>
+      <c r="P37" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Phoebus</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>21</v>
+      </c>
+      <c r="F38" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16</v>
+      </c>
+      <c r="H38" t="n">
+        <v>18</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>20</v>
+      </c>
+      <c r="K38" t="n">
+        <v>21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>17</v>
+      </c>
+      <c r="M38" t="n">
+        <v>28</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>85</v>
+      </c>
+      <c r="P38" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Knights</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>18</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24</v>
+      </c>
+      <c r="G39" t="n">
+        <v>21</v>
+      </c>
+      <c r="H39" t="n">
+        <v>19</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15</v>
+      </c>
+      <c r="L39" t="n">
+        <v>20</v>
+      </c>
+      <c r="M39" t="n">
+        <v>17</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>82</v>
+      </c>
+      <c r="P39" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thunders</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="n">
+        <v>31</v>
+      </c>
+      <c r="G40" t="n">
+        <v>22</v>
+      </c>
+      <c r="H40" t="n">
+        <v>20</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>21</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14</v>
+      </c>
+      <c r="L40" t="n">
+        <v>15</v>
+      </c>
+      <c r="M40" t="n">
+        <v>13</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>98</v>
+      </c>
+      <c r="P40" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>18</v>
+      </c>
+      <c r="F41" t="n">
+        <v>24</v>
+      </c>
+      <c r="G41" t="n">
+        <v>23</v>
+      </c>
+      <c r="H41" t="n">
+        <v>13</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>22</v>
+      </c>
+      <c r="K41" t="n">
+        <v>16</v>
+      </c>
+      <c r="L41" t="n">
+        <v>16</v>
+      </c>
+      <c r="M41" t="n">
+        <v>16</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>78</v>
+      </c>
+      <c r="P41" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>26</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12</v>
+      </c>
+      <c r="G42" t="n">
+        <v>15</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>19</v>
+      </c>
+      <c r="K42" t="n">
+        <v>21</v>
+      </c>
+      <c r="L42" t="n">
+        <v>24</v>
+      </c>
+      <c r="M42" t="n">
+        <v>19</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18</v>
+      </c>
+      <c r="G43" t="n">
+        <v>19</v>
+      </c>
+      <c r="H43" t="n">
+        <v>16</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>18</v>
+      </c>
+      <c r="K43" t="n">
+        <v>18</v>
+      </c>
+      <c r="L43" t="n">
+        <v>17</v>
+      </c>
+      <c r="M43" t="n">
+        <v>23</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>73</v>
+      </c>
+      <c r="P43" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LG Sakers </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>27</v>
+      </c>
+      <c r="F44" t="n">
+        <v>21</v>
+      </c>
+      <c r="G44" t="n">
+        <v>20</v>
+      </c>
+      <c r="H44" t="n">
+        <v>21</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>24</v>
+      </c>
+      <c r="K44" t="n">
+        <v>13</v>
+      </c>
+      <c r="L44" t="n">
+        <v>25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>18</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>89</v>
+      </c>
+      <c r="P44" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Skygunners</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Phoebus</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Phoebus</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Phoebus</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Phoebus</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KT Sonicboom</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sonicboom</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sakers</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>W</t>
         </is>

--- a/datafile_bb.xlsx
+++ b/datafile_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1141"/>
+  <dimension ref="A1:Q1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71857,61 +71857,41 @@
           <t>Motilones Del Norte</t>
         </is>
       </c>
-      <c r="E1134" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="E1134" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>20</v>
       </c>
       <c r="I1134" t="n">
         <v>0</v>
       </c>
-      <c r="J1134" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="L1134" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="M1134" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="J1134" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>18</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>23</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>27</v>
       </c>
       <c r="N1134" t="n">
         <v>0</v>
       </c>
-      <c r="O1134" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="P1134" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="O1134" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>84</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -71940,61 +71920,41 @@
           <t>Cimarrones</t>
         </is>
       </c>
-      <c r="E1135" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="E1135" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>20</v>
       </c>
       <c r="I1135" t="n">
         <v>0</v>
       </c>
-      <c r="J1135" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="L1135" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="M1135" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="J1135" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>20</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>26</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>22</v>
       </c>
       <c r="N1135" t="n">
         <v>0</v>
       </c>
-      <c r="O1135" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="P1135" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="O1135" t="n">
+        <v>72</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>87</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -72023,61 +71983,41 @@
           <t>Cimarrones</t>
         </is>
       </c>
-      <c r="E1136" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="E1136" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>16</v>
       </c>
       <c r="I1136" t="n">
         <v>0</v>
       </c>
-      <c r="J1136" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L1136" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="M1136" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="J1136" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>16</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>19</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>13</v>
       </c>
       <c r="N1136" t="n">
         <v>0</v>
       </c>
-      <c r="O1136" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="P1136" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="O1136" t="n">
+        <v>75</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>63</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -72106,20 +72046,14 @@
           <t>Motilones Del Norte</t>
         </is>
       </c>
-      <c r="E1137" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="E1137" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>9</v>
       </c>
       <c r="H1137" t="n">
         <v>0</v>
@@ -72127,20 +72061,14 @@
       <c r="I1137" t="n">
         <v>0</v>
       </c>
-      <c r="J1137" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L1137" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="J1137" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>19</v>
       </c>
       <c r="M1137" t="n">
         <v>0</v>
@@ -72148,15 +72076,11 @@
       <c r="N1137" t="n">
         <v>0</v>
       </c>
-      <c r="O1137" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="P1137" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="O1137" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>50</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -72185,61 +72109,41 @@
           <t>Corsarios Cartagena</t>
         </is>
       </c>
-      <c r="E1138" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="E1138" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>24</v>
       </c>
       <c r="I1138" t="n">
         <v>0</v>
       </c>
-      <c r="J1138" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="L1138" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M1138" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="J1138" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>19</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>14</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>23</v>
       </c>
       <c r="N1138" t="n">
         <v>0</v>
       </c>
-      <c r="O1138" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="P1138" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="O1138" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>77</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -72268,61 +72172,41 @@
           <t>Corsarios Cartagena</t>
         </is>
       </c>
-      <c r="E1139" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="E1139" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>29</v>
       </c>
       <c r="I1139" t="n">
         <v>0</v>
       </c>
-      <c r="J1139" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="L1139" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="M1139" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="J1139" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>20</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>18</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>17</v>
       </c>
       <c r="N1139" t="n">
         <v>0</v>
       </c>
-      <c r="O1139" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="P1139" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="O1139" t="n">
+        <v>88</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>74</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -72351,61 +72235,41 @@
           <t>Titanes</t>
         </is>
       </c>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="E1140" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>17</v>
       </c>
       <c r="I1140" t="n">
         <v>0</v>
       </c>
-      <c r="J1140" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="L1140" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M1140" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="J1140" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>18</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>14</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>16</v>
       </c>
       <c r="N1140" t="n">
         <v>0</v>
       </c>
-      <c r="O1140" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="P1140" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="O1140" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>57</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -72434,63 +72298,1215 @@
           <t>Titanes</t>
         </is>
       </c>
-      <c r="E1141" t="inlineStr">
+      <c r="E1141" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>21</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>23</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>76</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q1141" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Oberá Tenis Club</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>Quimsa</t>
+        </is>
+      </c>
+      <c r="E1142" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>71</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1142" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>Oberá Tenis Club</t>
+        </is>
+      </c>
+      <c r="E1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>Oberá Tenis Club</t>
+        </is>
+      </c>
+      <c r="E1144" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>9</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>74</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1144" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>Argentino</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>Oberá Tenis Club</t>
+        </is>
+      </c>
+      <c r="E1145" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>26</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>22</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>73</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q1145" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Oberá Tenis Club</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>San Martín</t>
+        </is>
+      </c>
+      <c r="E1146" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>16</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q1146" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Oberá Tenis Club</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>19</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>21</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>72</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q1147" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Oberá Tenis Club</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>Olímpico LB</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>21</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>85</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q1148" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>Oberá Tenis Club</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>Comunicaciones</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>12</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>23</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q1149" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>Comunicaciones</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1150" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M1150" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1150" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="P1150" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="Q1150" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G1151" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F1141" t="inlineStr">
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1151" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M1151" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1151" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="P1151" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="Q1151" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>San Martín</t>
+        </is>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G1152" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1152" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G1141" t="inlineStr">
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M1152" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1152" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="P1152" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="Q1152" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>Unión de Santa Fé</t>
+        </is>
+      </c>
+      <c r="E1153" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1141" t="inlineStr">
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1153" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K1153" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="K1141" t="inlineStr">
+      <c r="L1153" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="L1141" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="M1141" t="inlineStr">
+      <c r="M1153" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1153" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="P1153" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="Q1153" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1154" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L1154" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="N1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1141" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="P1141" t="inlineStr">
+      <c r="M1154" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1154" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="P1154" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="Q1154" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>Zarate Basket</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G1155" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H1155" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1155" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L1155" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M1155" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1155" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="P1155" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="Q1155" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>Argentino</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F1156" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G1156" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H1156" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1156" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L1156" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M1156" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1156" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="P1156" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="Q1141" t="inlineStr">
+      <c r="Q1156" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>Boca Jrs</t>
+        </is>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F1157" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H1157" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I1157" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J1157" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L1157" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M1157" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N1157" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O1157" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="P1157" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="Q1157" t="inlineStr">
         <is>
           <t>L</t>
         </is>
